--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_YORK_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_YORK_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1189"/>
+  <dimension ref="A1:D1183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C3">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C18">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C21">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C54">
@@ -1285,7 +1285,7 @@
         <v>172</v>
       </c>
       <c r="D69">
-        <v>0.009256269508126143</v>
+        <v>0.009256269508126145</v>
       </c>
     </row>
     <row r="70">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C75">
@@ -1418,7 +1418,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C79">
@@ -1540,7 +1540,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1552,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="D88">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="89">
@@ -1578,7 +1578,7 @@
         <v>173</v>
       </c>
       <c r="D90">
-        <v>0.009310085028522225</v>
+        <v>0.009310085028522224</v>
       </c>
     </row>
     <row r="91">
@@ -1597,7 +1597,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C92">
@@ -1862,12 +1862,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C112">
@@ -1906,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C115">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C120">
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="D122">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="123">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C127">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C130">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C135">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C141">
@@ -2277,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="D143">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="144">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C152">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C163">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C172">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C183">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C191">
@@ -2966,7 +2966,7 @@
         <v>18</v>
       </c>
       <c r="D196">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C200">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C206">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C209">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C217">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C221">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C225">
@@ -3384,13 +3384,13 @@
         <v>18</v>
       </c>
       <c r="D227">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C228">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C229">
@@ -3455,7 +3455,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C233">
@@ -3468,7 +3468,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C234">
@@ -3488,13 +3488,13 @@
         <v>17</v>
       </c>
       <c r="D235">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C236">
@@ -3507,7 +3507,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C237">
@@ -3533,7 +3533,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C239">
@@ -3546,7 +3546,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C240">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C241">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C246">
@@ -3637,7 +3637,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C247">
@@ -3689,7 +3689,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C252">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C259">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C262">
@@ -3884,7 +3884,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C266">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C279">
@@ -4073,13 +4073,13 @@
         <v>17</v>
       </c>
       <c r="D280">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C281">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C283">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C285">
@@ -4183,20 +4183,20 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C289">
         <v>18</v>
       </c>
       <c r="D289">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C290">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C302">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C310">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C316">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C319">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C322">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C325">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C335">
@@ -4825,14 +4825,14 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C338">
         <v>17</v>
       </c>
       <c r="D338">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="339">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C344">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C348">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C351">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C352">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C359">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C360">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C362">
@@ -5207,7 +5207,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C367">
@@ -5220,7 +5220,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C368">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C370">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C376">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C382">
@@ -5428,7 +5428,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C384">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C385">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C391">
@@ -5532,7 +5532,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C395">
@@ -5597,7 +5597,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C397">
@@ -6324,7 +6324,7 @@
         <v>18</v>
       </c>
       <c r="D452">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="453">
@@ -6569,7 +6569,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C471">
@@ -6608,7 +6608,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C474">
@@ -6673,7 +6673,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C479">
@@ -6699,7 +6699,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C481">
@@ -6803,7 +6803,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C489">
@@ -6873,7 +6873,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C494">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C505">
@@ -7130,7 +7130,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C513">
@@ -7143,20 +7143,20 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C514">
         <v>17</v>
       </c>
       <c r="D514">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C515">
@@ -7195,7 +7195,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C518">
@@ -7208,7 +7208,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C519">
@@ -7221,7 +7221,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C520">
@@ -7234,7 +7234,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C521">
@@ -7247,7 +7247,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C522">
@@ -7260,7 +7260,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C523">
@@ -7312,7 +7312,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C527">
@@ -7325,7 +7325,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C528">
@@ -7338,7 +7338,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C529">
@@ -7351,7 +7351,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C530">
@@ -7364,7 +7364,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C531">
@@ -7377,7 +7377,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C532">
@@ -7416,7 +7416,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C535">
@@ -7533,7 +7533,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C544">
@@ -7663,7 +7663,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C554">
@@ -7761,7 +7761,7 @@
         <v>18</v>
       </c>
       <c r="D561">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="562">
@@ -7832,7 +7832,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C567">
@@ -8300,7 +8300,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C603">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C604">
@@ -8482,7 +8482,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C617">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C622">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C643">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C647">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C705">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C707">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C708">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C710">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C711">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C715">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerero</t>
+          <t>Yutanduchi De Guerero</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C720">
@@ -9860,14 +9860,14 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C723">
         <v>18</v>
       </c>
       <c r="D723">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="724">
@@ -9898,7 +9898,7 @@
         <v>18</v>
       </c>
       <c r="D725">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="726">
@@ -10177,7 +10177,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C747">
@@ -10229,7 +10229,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C751">
@@ -10340,13 +10340,13 @@
         <v>17</v>
       </c>
       <c r="D759">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C760">
@@ -10489,7 +10489,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C771">
@@ -10541,7 +10541,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C775">
@@ -10554,7 +10554,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C776">
@@ -10717,7 +10717,7 @@
         <v>18</v>
       </c>
       <c r="D788">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="789">
@@ -10749,7 +10749,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C791">
@@ -10762,7 +10762,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C792">
@@ -10827,7 +10827,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C797">
@@ -10853,7 +10853,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C799">
@@ -10892,7 +10892,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C802">
@@ -11035,7 +11035,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C813">
@@ -11048,7 +11048,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C814">
@@ -11159,7 +11159,7 @@
         <v>18</v>
       </c>
       <c r="D822">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="823">
@@ -11204,7 +11204,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C826">
@@ -11334,7 +11334,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C836">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C850">
@@ -11568,20 +11568,20 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C854">
         <v>17</v>
       </c>
       <c r="D854">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C855">
@@ -11672,7 +11672,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C862">
@@ -11776,7 +11776,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C870">
@@ -11789,7 +11789,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C871">
@@ -11822,7 +11822,7 @@
         <v>17</v>
       </c>
       <c r="D873">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="874">
@@ -11867,7 +11867,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C877">
@@ -11893,7 +11893,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C879">
@@ -11906,7 +11906,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C880">
@@ -11971,7 +11971,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C885">
@@ -12127,7 +12127,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerero</t>
+          <t>Totoltepec De Guerero</t>
         </is>
       </c>
       <c r="C897">
@@ -12153,7 +12153,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C899">
@@ -12205,7 +12205,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C903">
@@ -12283,7 +12283,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C909">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C922">
@@ -12470,7 +12470,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C923">
@@ -12496,7 +12496,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C925">
@@ -12509,7 +12509,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C926">
@@ -12522,7 +12522,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C927">
@@ -12561,7 +12561,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C930">
@@ -12740,7 +12740,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C943">
@@ -12805,7 +12805,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C948">
@@ -12870,7 +12870,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C953">
@@ -12883,7 +12883,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C954">
@@ -13062,7 +13062,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C967">
@@ -13197,7 +13197,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C977">
@@ -13397,7 +13397,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C992">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C997">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C999">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1004">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1010">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1012">
@@ -13675,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1013">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1016">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1019">
@@ -13766,7 +13766,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1020">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1028">
@@ -14148,7 +14148,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1049">
@@ -14252,7 +14252,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1057">
@@ -14278,7 +14278,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1059">
@@ -14304,7 +14304,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1061">
@@ -14421,7 +14421,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1070">
@@ -14434,7 +14434,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1071">
@@ -14629,7 +14629,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1086">
@@ -14681,7 +14681,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1090">
@@ -14694,7 +14694,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1091">
@@ -14759,7 +14759,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1096">
@@ -14798,7 +14798,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1099">
@@ -14837,7 +14837,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1102">
@@ -14896,13 +14896,13 @@
         <v>17</v>
       </c>
       <c r="D1106">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1107">
@@ -15013,13 +15013,13 @@
         <v>17</v>
       </c>
       <c r="D1115">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1116">
@@ -15032,7 +15032,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1117">
@@ -15071,7 +15071,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15156,7 +15156,7 @@
         <v>17</v>
       </c>
       <c r="D1126">
-        <v>0.0009148638467333979</v>
+        <v>0.000914863846733398</v>
       </c>
     </row>
     <row r="1127">
@@ -15188,7 +15188,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1129">
@@ -15214,7 +15214,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1131">
@@ -15266,7 +15266,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1135">
@@ -15435,7 +15435,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1148">
@@ -15552,7 +15552,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1157">
@@ -15630,7 +15630,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1163">
@@ -15643,7 +15643,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1164">
@@ -15796,7 +15796,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1175">
@@ -15894,7 +15894,7 @@
         <v>18</v>
       </c>
       <c r="D1182">
-        <v>0.0009686793671294801</v>
+        <v>0.00096867936712948</v>
       </c>
     </row>
     <row r="1183">
@@ -15908,41 +15908,6 @@
       </c>
       <c r="D1183">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
